--- a/static/Data/Daten_2024-07-23.xlsx
+++ b/static/Data/Daten_2024-07-23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\Programming\projects\022_politik_landschaft_von_schaffhausen\static\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\Programming\Politiklandschaft von Schaffhausen\static\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0573A7-C644-481F-B862-4111366F0A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22239403-7901-43E8-84B2-022B1CAE56DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="895" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="895" xr2:uid="{14A33047-0F01-4220-AED4-88F942CA7A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorlage" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="514">
   <si>
     <t>Quelle</t>
   </si>
@@ -1541,6 +1541,96 @@
   </si>
   <si>
     <t>https://stetten.ch/wp-content/uploads/2023/04/EgelmairPhotography_GemeindeStetten_Portrait_lowres-3934.jpg</t>
+  </si>
+  <si>
+    <t>Giorgio</t>
+  </si>
+  <si>
+    <t>Calligaro</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Josef</t>
+  </si>
+  <si>
+    <t>Würms</t>
+  </si>
+  <si>
+    <t>Dickenmann</t>
+  </si>
+  <si>
+    <t>Höhener</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Sätteli</t>
+  </si>
+  <si>
+    <t>von Lienen</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Jenzer-Ruh</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>Graf</t>
+  </si>
+  <si>
+    <t>Brielmeier</t>
+  </si>
+  <si>
+    <t>Heinz</t>
+  </si>
+  <si>
+    <t>Pentti</t>
+  </si>
+  <si>
+    <t>Aellig</t>
+  </si>
+  <si>
+    <t>Ursula</t>
+  </si>
+  <si>
+    <t>Risch</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Thalmann</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Roost</t>
+  </si>
+  <si>
+    <t>Brühlmann</t>
+  </si>
+  <si>
+    <t>Amstad</t>
+  </si>
+  <si>
+    <t>Reto</t>
+  </si>
+  <si>
+    <t>Streif</t>
   </si>
 </sst>
 </file>
@@ -2006,8 +2096,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{94884739-0A5B-41EF-A492-4A573FD6AFE0}" name="Table13101112138141518" displayName="Table13101112138141518" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{94884739-0A5B-41EF-A492-4A573FD6AFE0}" name="Table13101112138141518" displayName="Table13101112138141518" ref="A7:H11" totalsRowShown="0">
+  <autoFilter ref="A7:H11" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{511E1E5C-C025-4C56-AA38-7929B0F1A456}" name="Vorname" dataDxfId="84"/>
     <tableColumn id="2" xr3:uid="{346630D0-C931-480F-87F8-8FAA90F6A15A}" name="Nachname" dataDxfId="83"/>
@@ -2023,8 +2113,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{CB8742E8-6486-4BCE-A625-2278F1B9F831}" name="Table1310111213814151819" displayName="Table1310111213814151819" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{CB8742E8-6486-4BCE-A625-2278F1B9F831}" name="Table1310111213814151819" displayName="Table1310111213814151819" ref="A7:H12" totalsRowShown="0">
+  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0B870D11-5919-4948-8083-94A92DF08797}" name="Vorname" dataDxfId="79"/>
     <tableColumn id="2" xr3:uid="{0ECFB565-6188-4D64-8CC4-D677D9027BEA}" name="Nachname" dataDxfId="78"/>
@@ -2040,8 +2130,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{80EF42D7-E2A9-4637-845B-AFD346C7EA41}" name="Table131011121381415181920" displayName="Table131011121381415181920" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{80EF42D7-E2A9-4637-845B-AFD346C7EA41}" name="Table131011121381415181920" displayName="Table131011121381415181920" ref="A7:H12" totalsRowShown="0">
+  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0C1CAE26-35BA-47B3-8ACB-B8CBF1C66321}" name="Vorname" dataDxfId="74"/>
     <tableColumn id="2" xr3:uid="{55AAE6EF-6B61-4AB1-AF64-BC514832D8AF}" name="Nachname" dataDxfId="73"/>
@@ -2057,8 +2147,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BEFE52F8-6B67-43E4-9DC3-58E3AE1F1CFA}" name="Table13101112138141518192021" displayName="Table13101112138141518192021" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{BEFE52F8-6B67-43E4-9DC3-58E3AE1F1CFA}" name="Table13101112138141518192021" displayName="Table13101112138141518192021" ref="A7:H12" totalsRowShown="0">
+  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5F5E85FC-25CE-425C-87E8-D307F0334EDC}" name="Vorname" dataDxfId="69"/>
     <tableColumn id="2" xr3:uid="{52B23B96-35F4-401E-BCAF-82F1505A790D}" name="Nachname" dataDxfId="68"/>
@@ -2091,8 +2181,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{3F6C97EC-4865-46AB-9A44-36FF214DBC22}" name="Table1310111213814151819202122" displayName="Table1310111213814151819202122" ref="A7:H8" totalsRowShown="0">
-  <autoFilter ref="A7:H8" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{3F6C97EC-4865-46AB-9A44-36FF214DBC22}" name="Table1310111213814151819202122" displayName="Table1310111213814151819202122" ref="A7:H12" totalsRowShown="0">
+  <autoFilter ref="A7:H12" xr:uid="{23A6F2AF-272C-421C-BCB0-8E8D2EB30347}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7F4BB391-1B3F-4E68-B498-6AFE9C91DC74}" name="Vorname" dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{4831B6AE-9B94-4D3E-9389-6A1C17DC7CE1}" name="Nachname" dataDxfId="63"/>
@@ -2750,7 +2840,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,10 +4331,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9AF6C2-6BC9-4DC8-8047-E7696DF59D74}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4325,7 +4415,58 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8" t="s">
+        <v>485</v>
+      </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4340,9 +4481,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A134B6-6850-4661-8474-D018825B45F5}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4421,7 +4564,72 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B8" t="s">
+        <v>490</v>
+      </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4436,10 +4644,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832A7A1A-8EE3-4682-96E2-37748D891809}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,7 +4728,72 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B8" t="s">
+        <v>497</v>
+      </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4535,10 +4808,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E62012-4CEC-4E5E-82EA-D80F807C6B13}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4619,7 +4892,72 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B8" t="s">
+        <v>503</v>
+      </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4819,10 +5157,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1AB0DD-3FC9-4AA4-BF04-74DB0DBF0932}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4903,7 +5241,72 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>462</v>
+      </c>
       <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5016,15 +5419,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>475</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
         <v>482</v>
       </c>
@@ -5033,15 +5433,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>476</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
         <v>481</v>
       </c>
@@ -5050,15 +5447,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>477</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>478</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="G11" s="2" t="s">
         <v>480</v>
       </c>
@@ -5067,15 +5461,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="G12" s="2" t="s">
         <v>479</v>
       </c>
@@ -5197,57 +5588,45 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>468</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>469</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="H10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>471</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="H11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>472</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="H12" t="s">
         <v>115</v>
       </c>
@@ -5361,57 +5740,45 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>462</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="H10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>464</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>465</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="H11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="H12" t="s">
         <v>115</v>
       </c>
@@ -5527,15 +5894,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
         <v>456</v>
       </c>
@@ -5544,15 +5908,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
         <v>457</v>
       </c>
@@ -5561,15 +5922,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>449</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="G11" s="2" t="s">
         <v>458</v>
       </c>
@@ -5578,15 +5936,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>450</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>451</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="G12" s="2" t="s">
         <v>459</v>
       </c>
@@ -5595,15 +5950,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>452</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>447</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
       <c r="G13" s="2" t="s">
         <v>455</v>
       </c>
@@ -5612,15 +5964,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>453</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
       <c r="G14" s="2" t="s">
         <v>460</v>
       </c>
@@ -5744,57 +6093,45 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>439</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>440</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>441</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="H10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>442</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>444</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="H11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="H12" t="s">
         <v>116</v>
       </c>
@@ -5908,57 +6245,45 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>434</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="H10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="H11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
       <c r="H12" t="s">
         <v>115</v>
       </c>
@@ -6072,43 +6397,34 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>428</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="H9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
       <c r="H10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="H11" t="s">
         <v>116</v>
       </c>
